--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1870762.023792659</v>
+        <v>1870230.70376208</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16690094.09420433</v>
+        <v>16690094.09420432</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6153065.247750827</v>
+        <v>6153065.247750826</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.02949848241227</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>61.19270735832341</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -825,19 +825,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>156.0665348042639</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>219.1290399513284</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>225.619707616949</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -961,10 +961,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.47440571038297</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>19.68711485498559</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1116,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>115.711964454784</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.14011666776861</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>70.75434793228357</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>137.8834167598883</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>199.1362892344166</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1423,7 +1423,7 @@
         <v>82.5714639696243</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8197031463371</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U11" t="n">
         <v>256.6292234284552</v>
@@ -1545,7 +1545,7 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S13" t="n">
-        <v>22.74710563292932</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T13" t="n">
-        <v>243.400138899798</v>
+        <v>192.0715498918009</v>
       </c>
       <c r="U13" t="n">
         <v>275.6484088706061</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1770,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>25.72395291847789</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>29.11237900186405</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S16" t="n">
         <v>157.5652879271376</v>
       </c>
       <c r="T16" t="n">
-        <v>243.400138899798</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6484088706061</v>
@@ -1855,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948845</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3731502167427</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.5652879271376</v>
@@ -2058,16 +2058,16 @@
         <v>243.400138899798</v>
       </c>
       <c r="U19" t="n">
-        <v>177.8389630670672</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>71.9306466846742</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2098,7 +2098,7 @@
         <v>397.3731502167427</v>
       </c>
       <c r="H20" t="n">
-        <v>286.1292424873039</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S22" t="n">
         <v>157.5652879271376</v>
       </c>
       <c r="T22" t="n">
-        <v>108.5819566055898</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6484088706061</v>
+        <v>118.8984839978266</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,10 +2493,10 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>99.33734577952804</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.400138899798</v>
       </c>
       <c r="U25" t="n">
-        <v>140.8302265763979</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9305612960722</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I34" t="n">
-        <v>22.74710563292927</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>203.5260633760865</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3441,7 +3441,7 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H37" t="n">
-        <v>1.759329748161702</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T37" t="n">
         <v>243.400138899798</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6484088706061</v>
+        <v>119.8424506916303</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3731502167428</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H38" t="n">
         <v>286.1292424873029</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>29.11237900186405</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S40" t="n">
         <v>157.5652879271376</v>
@@ -3720,7 +3720,7 @@
         <v>275.6484088706061</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>127.3360281754942</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772992</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3796,7 +3796,7 @@
         <v>217.819703146337</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6292234284557</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633459</v>
       </c>
     </row>
     <row r="42">
@@ -3915,7 +3915,7 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S43" t="n">
-        <v>22.74710563292932</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.400138899798</v>
+        <v>106.6990006990167</v>
       </c>
       <c r="U43" t="n">
         <v>275.6484088706061</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948871</v>
       </c>
       <c r="G44" t="n">
         <v>397.3731502167427</v>
@@ -4030,7 +4030,7 @@
         <v>82.5714639696243</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8197031463371</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U44" t="n">
         <v>256.6292234284552</v>
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>29.11237900186405</v>
+        <v>8.12460311709644</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S46" t="n">
         <v>157.5652879271376</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>183.417919242928</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>149.3158504667553</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,22 +4333,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>1072.260748364489</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>653.1182849437999</v>
+        <v>1018.003613428182</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.8321612434534</v>
+        <v>609.7174897278358</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4412,22 +4412,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
         <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>537.9746478910331</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>365.412936374258</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4518,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1113.00182921349</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>1113.00182921349</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>1113.00182921349</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X4" t="n">
-        <v>1113.00182921349</v>
+        <v>729.7932666100203</v>
       </c>
       <c r="Y4" t="n">
-        <v>1113.00182921349</v>
+        <v>729.7932666100203</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>571.8836765847469</v>
+        <v>1379.964484665555</v>
       </c>
       <c r="C5" t="n">
-        <v>133.7412037681702</v>
+        <v>941.8220118489785</v>
       </c>
       <c r="D5" t="n">
-        <v>101.8718229830188</v>
+        <v>505.912227023423</v>
       </c>
       <c r="E5" t="n">
-        <v>72.13748218171807</v>
+        <v>476.1778862221222</v>
       </c>
       <c r="F5" t="n">
-        <v>48.31045663132987</v>
+        <v>48.31045663132996</v>
       </c>
       <c r="G5" t="n">
-        <v>48.31045663132987</v>
+        <v>48.31045663132996</v>
       </c>
       <c r="H5" t="n">
-        <v>48.31045663132987</v>
+        <v>48.31045663132996</v>
       </c>
       <c r="I5" t="n">
-        <v>47.89366725846988</v>
+        <v>47.89366725846996</v>
       </c>
       <c r="J5" t="n">
-        <v>483.1483547113878</v>
+        <v>483.1483547113879</v>
       </c>
       <c r="K5" t="n">
-        <v>483.1483547113878</v>
+        <v>483.1483547113879</v>
       </c>
       <c r="L5" t="n">
-        <v>483.1483547113878</v>
+        <v>483.1483547113879</v>
       </c>
       <c r="M5" t="n">
-        <v>483.1483547113878</v>
+        <v>483.1483547113879</v>
       </c>
       <c r="N5" t="n">
-        <v>493.6622475647129</v>
+        <v>493.6622475647148</v>
       </c>
       <c r="O5" t="n">
-        <v>1086.346379888278</v>
+        <v>1086.346379888281</v>
       </c>
       <c r="P5" t="n">
-        <v>1679.030512211842</v>
+        <v>1679.030512211846</v>
       </c>
       <c r="Q5" t="n">
-        <v>2225.529298170437</v>
+        <v>2225.529298170441</v>
       </c>
       <c r="R5" t="n">
-        <v>2394.683362923494</v>
+        <v>2394.683362923498</v>
       </c>
       <c r="S5" t="n">
-        <v>2311.031489107331</v>
+        <v>2394.683362923498</v>
       </c>
       <c r="T5" t="n">
-        <v>2090.964261980369</v>
+        <v>2394.683362923498</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.741959297386</v>
+        <v>2394.683362923498</v>
       </c>
       <c r="V5" t="n">
-        <v>1469.125009231213</v>
+        <v>2032.066412857324</v>
       </c>
       <c r="W5" t="n">
-        <v>1064.269554642246</v>
+        <v>1627.210958268358</v>
       </c>
       <c r="X5" t="n">
-        <v>645.1270912215567</v>
+        <v>1612.108898888072</v>
       </c>
       <c r="Y5" t="n">
-        <v>594.1428430292507</v>
+        <v>1607.86317922813</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>554.0654122497626</v>
+        <v>554.0654122497627</v>
       </c>
       <c r="C6" t="n">
-        <v>447.6089510864049</v>
+        <v>447.6089510864051</v>
       </c>
       <c r="D6" t="n">
-        <v>352.5186622329582</v>
+        <v>352.5186622329583</v>
       </c>
       <c r="E6" t="n">
-        <v>258.3982475599119</v>
+        <v>258.398247559912</v>
       </c>
       <c r="F6" t="n">
-        <v>175.0144091760735</v>
+        <v>175.0144091760736</v>
       </c>
       <c r="G6" t="n">
-        <v>89.62931944225741</v>
+        <v>89.6293194422575</v>
       </c>
       <c r="H6" t="n">
-        <v>47.89366725846988</v>
+        <v>47.89366725846996</v>
       </c>
       <c r="I6" t="n">
-        <v>73.95734041892747</v>
+        <v>73.95734041892756</v>
       </c>
       <c r="J6" t="n">
-        <v>398.5156653851398</v>
+        <v>398.5156653851399</v>
       </c>
       <c r="K6" t="n">
-        <v>991.1997977087045</v>
+        <v>991.1997977087055</v>
       </c>
       <c r="L6" t="n">
         <v>1053.221712010863</v>
@@ -4688,10 +4688,10 @@
         <v>956.7225283114251</v>
       </c>
       <c r="X6" t="n">
-        <v>801.855092550305</v>
+        <v>801.8550925503051</v>
       </c>
       <c r="Y6" t="n">
-        <v>675.3693133295258</v>
+        <v>675.3693133295259</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466.0997691436783</v>
+        <v>780.4867700828448</v>
       </c>
       <c r="C7" t="n">
-        <v>446.2137945426828</v>
+        <v>607.9250585660698</v>
       </c>
       <c r="D7" t="n">
-        <v>446.2137945426828</v>
+        <v>442.0470657675924</v>
       </c>
       <c r="E7" t="n">
-        <v>276.45579079342</v>
+        <v>442.0470657675924</v>
       </c>
       <c r="F7" t="n">
-        <v>276.45579079342</v>
+        <v>442.0470657675924</v>
       </c>
       <c r="G7" t="n">
-        <v>276.45579079342</v>
+        <v>276.4557907934201</v>
       </c>
       <c r="H7" t="n">
-        <v>136.5536164837945</v>
+        <v>136.5536164837946</v>
       </c>
       <c r="I7" t="n">
-        <v>47.89366725846988</v>
+        <v>47.89366725846996</v>
       </c>
       <c r="J7" t="n">
-        <v>134.4733524231597</v>
+        <v>134.4733524231598</v>
       </c>
       <c r="K7" t="n">
-        <v>409.2318069942953</v>
+        <v>139.3618927565236</v>
       </c>
       <c r="L7" t="n">
-        <v>827.4416887622564</v>
+        <v>557.5717745244847</v>
       </c>
       <c r="M7" t="n">
-        <v>1286.925555943169</v>
+        <v>1017.055641705398</v>
       </c>
       <c r="N7" t="n">
-        <v>1729.184359100814</v>
+        <v>1459.314444863042</v>
       </c>
       <c r="O7" t="n">
-        <v>2148.853608326595</v>
+        <v>1878.983694088824</v>
       </c>
       <c r="P7" t="n">
-        <v>2226.490588059161</v>
+        <v>2226.490588059165</v>
       </c>
       <c r="Q7" t="n">
-        <v>2394.683362923494</v>
+        <v>2394.683362923498</v>
       </c>
       <c r="R7" t="n">
-        <v>2373.265541628866</v>
+        <v>2373.26554162887</v>
       </c>
       <c r="S7" t="n">
-        <v>2214.024172926862</v>
+        <v>2373.26554162887</v>
       </c>
       <c r="T7" t="n">
-        <v>1968.144726505318</v>
+        <v>2127.386095207325</v>
       </c>
       <c r="U7" t="n">
-        <v>1689.711725758423</v>
+        <v>1848.95309446043</v>
       </c>
       <c r="V7" t="n">
-        <v>1402.756217628853</v>
+        <v>1561.997586330861</v>
       </c>
       <c r="W7" t="n">
-        <v>1130.729813215145</v>
+        <v>1445.116814154311</v>
       </c>
       <c r="X7" t="n">
-        <v>885.3380585485572</v>
+        <v>1199.725059487724</v>
       </c>
       <c r="Y7" t="n">
-        <v>657.9183878626654</v>
+        <v>972.3053888018319</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2078.225803160042</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>1640.083330343465</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>1204.173545517909</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>770.3988006762045</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
@@ -4810,46 +4810,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1954.407975719777</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1954.407975719777</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1954.407975719777</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2598.59178811599</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2598.59178811599</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2598.59178811599</v>
       </c>
       <c r="V8" t="n">
-        <v>2586.408952615265</v>
+        <v>2235.974838049816</v>
       </c>
       <c r="W8" t="n">
-        <v>2585.593902066702</v>
+        <v>2235.159787501254</v>
       </c>
       <c r="X8" t="n">
-        <v>2166.451438646013</v>
+        <v>1816.017324080564</v>
       </c>
       <c r="Y8" t="n">
-        <v>2162.205718986071</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>794.0196728252577</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C10" t="n">
-        <v>794.0196728252577</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4959,7 +4959,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013251</v>
+        <v>2468.913059527977</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2190.480058781082</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136787</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056491</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705994</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1220.517729944102</v>
       </c>
       <c r="F11" t="n">
-        <v>792.6503003533096</v>
+        <v>792.6503003533098</v>
       </c>
       <c r="G11" t="n">
         <v>391.2632799323575</v>
@@ -5050,19 +5050,19 @@
         <v>2450.828022794025</v>
       </c>
       <c r="M11" t="n">
-        <v>2581.040336873681</v>
+        <v>2750.194401626737</v>
       </c>
       <c r="N11" t="n">
-        <v>2582.930975126826</v>
+        <v>2752.085039879882</v>
       </c>
       <c r="O11" t="n">
-        <v>3564.895917787388</v>
+        <v>3734.049982540444</v>
       </c>
       <c r="P11" t="n">
-        <v>4394.729484459995</v>
+        <v>4563.883549213051</v>
       </c>
       <c r="Q11" t="n">
-        <v>4942.372499534134</v>
+        <v>5111.52656428719</v>
       </c>
       <c r="R11" t="n">
         <v>5112.192153824797</v>
@@ -5080,13 +5080,13 @@
         <v>4186.928344622849</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033883</v>
       </c>
       <c r="X11" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613194</v>
       </c>
       <c r="Y11" t="n">
-        <v>2954.644302912846</v>
+        <v>2954.644302912847</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2438430764959</v>
       </c>
       <c r="I12" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J12" t="n">
-        <v>102.9746557451216</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K12" t="n">
-        <v>103.8901172816732</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L12" t="n">
-        <v>939.1495985654958</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M12" t="n">
-        <v>940.5860603349661</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N12" t="n">
-        <v>942.0605409731488</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O12" t="n">
-        <v>943.4094026939115</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P12" t="n">
-        <v>1764.215149621772</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q12" t="n">
-        <v>1764.938825982143</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R12" t="n">
         <v>1765.290817548849</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>952.7350307308429</v>
+        <v>1092.594089265129</v>
       </c>
       <c r="C13" t="n">
-        <v>780.1733192140679</v>
+        <v>920.0323777483537</v>
       </c>
       <c r="D13" t="n">
-        <v>614.2953264155906</v>
+        <v>754.1543849498764</v>
       </c>
       <c r="E13" t="n">
-        <v>444.5373226663279</v>
+        <v>584.3963812006136</v>
       </c>
       <c r="F13" t="n">
-        <v>267.8302686280841</v>
+        <v>407.6893271623698</v>
       </c>
       <c r="G13" t="n">
-        <v>102.2438430764959</v>
+        <v>242.1029016107817</v>
       </c>
       <c r="H13" t="n">
         <v>102.2438430764959</v>
@@ -5211,7 +5211,7 @@
         <v>1343.615637030075</v>
       </c>
       <c r="N13" t="n">
-        <v>1786.601766431229</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O13" t="n">
         <v>2206.942819164056</v>
@@ -5223,28 +5223,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R13" t="n">
-        <v>2723.615324116631</v>
+        <v>2702.415550495654</v>
       </c>
       <c r="S13" t="n">
-        <v>2700.638449739935</v>
+        <v>2543.258694003596</v>
       </c>
       <c r="T13" t="n">
-        <v>2454.779723578523</v>
+        <v>2349.247027446221</v>
       </c>
       <c r="U13" t="n">
-        <v>2176.346987345587</v>
+        <v>2070.814291213286</v>
       </c>
       <c r="V13" t="n">
-        <v>1889.391479216018</v>
+        <v>1783.858783083716</v>
       </c>
       <c r="W13" t="n">
-        <v>1617.365074802309</v>
+        <v>1511.832378670008</v>
       </c>
       <c r="X13" t="n">
-        <v>1371.973320135722</v>
+        <v>1511.832378670008</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.55364944983</v>
+        <v>1284.412707984116</v>
       </c>
     </row>
     <row r="14">
@@ -5287,19 +5287,19 @@
         <v>2450.828022794025</v>
       </c>
       <c r="M14" t="n">
-        <v>2581.040336873681</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N14" t="n">
-        <v>2582.930975126826</v>
+        <v>2752.085039879882</v>
       </c>
       <c r="O14" t="n">
-        <v>3564.895917787388</v>
+        <v>3734.049982540444</v>
       </c>
       <c r="P14" t="n">
-        <v>4394.729484459995</v>
+        <v>4563.883549213051</v>
       </c>
       <c r="Q14" t="n">
-        <v>4942.372499534134</v>
+        <v>5111.52656428719</v>
       </c>
       <c r="R14" t="n">
         <v>5112.192153824797</v>
@@ -5357,19 +5357,19 @@
         <v>128.5027079435546</v>
       </c>
       <c r="J15" t="n">
-        <v>129.0383289055792</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K15" t="n">
-        <v>810.6873105125082</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L15" t="n">
-        <v>811.9182615233725</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M15" t="n">
-        <v>813.3547232928428</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N15" t="n">
-        <v>814.8292039310256</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O15" t="n">
         <v>1105.220852446694</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>816.5550486154812</v>
+        <v>1041.214001155916</v>
       </c>
       <c r="C16" t="n">
-        <v>643.9933370987061</v>
+        <v>868.6522896391408</v>
       </c>
       <c r="D16" t="n">
-        <v>478.1153443002288</v>
+        <v>842.6684988123955</v>
       </c>
       <c r="E16" t="n">
-        <v>308.3573405509661</v>
+        <v>672.9104950631327</v>
       </c>
       <c r="F16" t="n">
-        <v>131.6502865127223</v>
+        <v>496.2034410248889</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2438430764959</v>
+        <v>330.6170154733007</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2438430764959</v>
+        <v>190.757956939015</v>
       </c>
       <c r="I16" t="n">
         <v>102.2438430764959</v>
@@ -5448,7 +5448,7 @@
         <v>1343.615637030075</v>
       </c>
       <c r="N16" t="n">
-        <v>1786.601766431229</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O16" t="n">
         <v>2206.942819164056</v>
@@ -5460,28 +5460,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R16" t="n">
-        <v>2723.615324116631</v>
+        <v>2702.415550495654</v>
       </c>
       <c r="S16" t="n">
-        <v>2564.458467624573</v>
+        <v>2543.258694003596</v>
       </c>
       <c r="T16" t="n">
-        <v>2318.599741463161</v>
+        <v>2543.258694003596</v>
       </c>
       <c r="U16" t="n">
-        <v>2040.167005230226</v>
+        <v>2264.82595777066</v>
       </c>
       <c r="V16" t="n">
-        <v>1753.211497100656</v>
+        <v>1977.870449641091</v>
       </c>
       <c r="W16" t="n">
-        <v>1481.185092686948</v>
+        <v>1705.844045227382</v>
       </c>
       <c r="X16" t="n">
-        <v>1235.79333802036</v>
+        <v>1460.452290560795</v>
       </c>
       <c r="Y16" t="n">
-        <v>1008.373667334468</v>
+        <v>1233.032619874903</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1220.517729944102</v>
       </c>
       <c r="F17" t="n">
-        <v>792.6503003533096</v>
+        <v>792.6503003533098</v>
       </c>
       <c r="G17" t="n">
-        <v>391.2632799323575</v>
+        <v>391.2632799323574</v>
       </c>
       <c r="H17" t="n">
         <v>102.2438430764959</v>
@@ -5524,31 +5524,31 @@
         <v>2450.828022794025</v>
       </c>
       <c r="M17" t="n">
-        <v>3561.220003443987</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N17" t="n">
-        <v>3563.110641697132</v>
+        <v>2582.930975126823</v>
       </c>
       <c r="O17" t="n">
-        <v>3564.895917787388</v>
+        <v>3564.895917787386</v>
       </c>
       <c r="P17" t="n">
-        <v>4394.729484459995</v>
+        <v>4394.729484459993</v>
       </c>
       <c r="Q17" t="n">
-        <v>4942.372499534134</v>
+        <v>4942.372499534132</v>
       </c>
       <c r="R17" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824795</v>
       </c>
       <c r="S17" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663558</v>
       </c>
       <c r="T17" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495541</v>
       </c>
       <c r="U17" t="n">
-        <v>4549.545294689023</v>
+        <v>4549.545294689022</v>
       </c>
       <c r="V17" t="n">
         <v>4186.928344622849</v>
@@ -5576,10 +5576,10 @@
         <v>501.8974776840485</v>
       </c>
       <c r="D18" t="n">
-        <v>406.8071888306018</v>
+        <v>406.8071888306017</v>
       </c>
       <c r="E18" t="n">
-        <v>312.6867741575555</v>
+        <v>312.6867741575554</v>
       </c>
       <c r="F18" t="n">
         <v>229.3029357737171</v>
@@ -5591,31 +5591,31 @@
         <v>102.2438430764959</v>
       </c>
       <c r="I18" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435545</v>
       </c>
       <c r="J18" t="n">
-        <v>102.9746557451216</v>
+        <v>453.5966538717914</v>
       </c>
       <c r="K18" t="n">
-        <v>397.1797089225559</v>
+        <v>1135.24563547872</v>
       </c>
       <c r="L18" t="n">
-        <v>398.4106599334202</v>
+        <v>1136.476586489585</v>
       </c>
       <c r="M18" t="n">
-        <v>399.8471217028905</v>
+        <v>1137.913048259055</v>
       </c>
       <c r="N18" t="n">
-        <v>401.3216023410733</v>
+        <v>1139.387528897238</v>
       </c>
       <c r="O18" t="n">
-        <v>402.6704640618359</v>
+        <v>1140.736390618001</v>
       </c>
       <c r="P18" t="n">
-        <v>1223.476210989696</v>
+        <v>1141.818971066662</v>
       </c>
       <c r="Q18" t="n">
-        <v>1764.938825982143</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R18" t="n">
         <v>1765.290817548849</v>
@@ -5655,25 +5655,25 @@
         <v>1008.546491610873</v>
       </c>
       <c r="D19" t="n">
-        <v>842.6684988123955</v>
+        <v>842.6684988123952</v>
       </c>
       <c r="E19" t="n">
-        <v>672.9104950631327</v>
+        <v>672.9104950631325</v>
       </c>
       <c r="F19" t="n">
-        <v>496.2034410248889</v>
+        <v>496.2034410248888</v>
       </c>
       <c r="G19" t="n">
         <v>330.6170154733007</v>
       </c>
       <c r="H19" t="n">
-        <v>190.757956939015</v>
+        <v>190.7579569390149</v>
       </c>
       <c r="I19" t="n">
         <v>102.2438430764959</v>
       </c>
       <c r="J19" t="n">
-        <v>189.1595596197742</v>
+        <v>189.1595596197741</v>
       </c>
       <c r="K19" t="n">
         <v>464.4702169706911</v>
@@ -5685,7 +5685,7 @@
         <v>1343.615637030075</v>
       </c>
       <c r="N19" t="n">
-        <v>1786.601766431229</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O19" t="n">
         <v>2206.942819164056</v>
@@ -5697,28 +5697,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R19" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S19" t="n">
-        <v>2543.258694003596</v>
+        <v>2564.458467624573</v>
       </c>
       <c r="T19" t="n">
-        <v>2297.399967842184</v>
+        <v>2318.599741463161</v>
       </c>
       <c r="U19" t="n">
-        <v>2117.764651612823</v>
+        <v>2040.167005230226</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.764651612823</v>
+        <v>1753.211497100656</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.738247199114</v>
+        <v>1481.185092686948</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.346492532527</v>
+        <v>1408.527873813539</v>
       </c>
       <c r="Y19" t="n">
-        <v>1372.926821846635</v>
+        <v>1181.108203127648</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.34473242794</v>
+        <v>2528.344732427937</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.202259611363</v>
+        <v>2090.202259611361</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.292474785808</v>
+        <v>1654.292474785805</v>
       </c>
       <c r="E20" t="n">
-        <v>1220.517729944103</v>
+        <v>1220.5177299441</v>
       </c>
       <c r="F20" t="n">
-        <v>792.6503003533107</v>
+        <v>792.650300353308</v>
       </c>
       <c r="G20" t="n">
-        <v>391.2632799323585</v>
+        <v>391.2632799323558</v>
       </c>
       <c r="H20" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764943</v>
       </c>
       <c r="I20" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J20" t="n">
         <v>538.3978373173468</v>
@@ -5764,40 +5764,40 @@
         <v>2452.688555679948</v>
       </c>
       <c r="N20" t="n">
-        <v>2582.930975126827</v>
+        <v>2582.930975126823</v>
       </c>
       <c r="O20" t="n">
-        <v>3564.895917787388</v>
+        <v>3564.895917787386</v>
       </c>
       <c r="P20" t="n">
-        <v>4394.729484459996</v>
+        <v>4394.729484459993</v>
       </c>
       <c r="Q20" t="n">
-        <v>4942.372499534134</v>
+        <v>4942.372499534132</v>
       </c>
       <c r="R20" t="n">
-        <v>5112.192153824798</v>
+        <v>5112.192153824795</v>
       </c>
       <c r="S20" t="n">
-        <v>5028.786634663561</v>
+        <v>5028.786634663558</v>
       </c>
       <c r="T20" t="n">
-        <v>4808.766732495544</v>
+        <v>4808.766732495541</v>
       </c>
       <c r="U20" t="n">
-        <v>4549.545294689024</v>
+        <v>4549.545294689021</v>
       </c>
       <c r="V20" t="n">
-        <v>4186.92834462285</v>
+        <v>4186.928344622847</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.072890033884</v>
+        <v>3782.072890033881</v>
       </c>
       <c r="X20" t="n">
-        <v>3362.930426613194</v>
+        <v>3362.930426613192</v>
       </c>
       <c r="Y20" t="n">
-        <v>2954.644302912848</v>
+        <v>2954.644302912845</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.255275123354</v>
+        <v>608.3539388474062</v>
       </c>
       <c r="C21" t="n">
-        <v>3848.798813959997</v>
+        <v>501.8974776840485</v>
       </c>
       <c r="D21" t="n">
-        <v>3753.70852510655</v>
+        <v>406.8071888306017</v>
       </c>
       <c r="E21" t="n">
-        <v>3659.588110433504</v>
+        <v>312.6867741575554</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.204272049665</v>
+        <v>229.3029357737171</v>
       </c>
       <c r="G21" t="n">
-        <v>3490.824966687144</v>
+        <v>143.9236304111961</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.145179352444</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.404044219503</v>
+        <v>128.5027079435545</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.49799014774</v>
+        <v>453.5966538717914</v>
       </c>
       <c r="K21" t="n">
-        <v>4446.631433583362</v>
+        <v>454.5121154083431</v>
       </c>
       <c r="L21" t="n">
-        <v>4447.862384594227</v>
+        <v>455.7430664192074</v>
       </c>
       <c r="M21" t="n">
-        <v>4449.298846363697</v>
+        <v>457.1795281886777</v>
       </c>
       <c r="N21" t="n">
-        <v>4450.77332700188</v>
+        <v>458.6540088268605</v>
       </c>
       <c r="O21" t="n">
-        <v>4452.122188722642</v>
+        <v>460.0028705476231</v>
       </c>
       <c r="P21" t="n">
-        <v>4453.204769171304</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q21" t="n">
-        <v>4994.667384163752</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R21" t="n">
-        <v>5112.192153824798</v>
+        <v>1765.290817548849</v>
       </c>
       <c r="S21" t="n">
-        <v>5048.844158432983</v>
+        <v>1701.942822157035</v>
       </c>
       <c r="T21" t="n">
-        <v>4918.688829839112</v>
+        <v>1571.787493563164</v>
       </c>
       <c r="U21" t="n">
-        <v>4742.352663389824</v>
+        <v>1395.451327113875</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.235145451823</v>
+        <v>1196.333809175875</v>
       </c>
       <c r="W21" t="n">
-        <v>4357.912391185017</v>
+        <v>1011.011054909069</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.044955423897</v>
+        <v>856.1436191479486</v>
       </c>
       <c r="Y21" t="n">
-        <v>4076.559176203118</v>
+        <v>729.6578399271693</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7350307308429</v>
+        <v>1181.108203127648</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1733192140679</v>
+        <v>1008.546491610873</v>
       </c>
       <c r="D22" t="n">
-        <v>614.2953264155906</v>
+        <v>842.6684988123952</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5373226663279</v>
+        <v>672.9104950631325</v>
       </c>
       <c r="F22" t="n">
-        <v>267.8302686280841</v>
+        <v>496.2034410248888</v>
       </c>
       <c r="G22" t="n">
-        <v>102.243843076496</v>
+        <v>330.6170154733007</v>
       </c>
       <c r="H22" t="n">
-        <v>102.243843076496</v>
+        <v>190.7579569390149</v>
       </c>
       <c r="I22" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J22" t="n">
-        <v>189.1595596197742</v>
+        <v>189.1595596197741</v>
       </c>
       <c r="K22" t="n">
         <v>464.4702169706911</v>
@@ -5922,7 +5922,7 @@
         <v>1343.615637030075</v>
       </c>
       <c r="N22" t="n">
-        <v>1786.601766431229</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O22" t="n">
         <v>2206.942819164056</v>
@@ -5934,28 +5934,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R22" t="n">
-        <v>2723.615324116631</v>
+        <v>2702.415550495654</v>
       </c>
       <c r="S22" t="n">
-        <v>2564.458467624573</v>
+        <v>2543.258694003596</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.779723578523</v>
+        <v>2297.399967842184</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.346987345587</v>
+        <v>2177.3004890565</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.391479216018</v>
+        <v>1890.344980926931</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.365074802309</v>
+        <v>1618.318576513222</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.973320135722</v>
+        <v>1372.926821846635</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.55364944983</v>
+        <v>1372.926821846635</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.344732427939</v>
+        <v>2528.344732427938</v>
       </c>
       <c r="C23" t="n">
         <v>2090.202259611362</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.292474785806</v>
       </c>
       <c r="E23" t="n">
-        <v>1220.517729944102</v>
+        <v>1220.517729944101</v>
       </c>
       <c r="F23" t="n">
-        <v>792.6503003533097</v>
+        <v>792.6503003533094</v>
       </c>
       <c r="G23" t="n">
         <v>391.2632799323575</v>
@@ -5989,28 +5989,28 @@
         <v>102.2438430764959</v>
       </c>
       <c r="J23" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K23" t="n">
-        <v>763.6316451211826</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L23" t="n">
-        <v>1840.363710885808</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M23" t="n">
-        <v>2999.272078982282</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N23" t="n">
-        <v>4126.893700671873</v>
+        <v>2582.930975126825</v>
       </c>
       <c r="O23" t="n">
-        <v>5108.858643332435</v>
+        <v>3564.895917787388</v>
       </c>
       <c r="P23" t="n">
-        <v>5110.382335171646</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q23" t="n">
-        <v>5111.52656428719</v>
+        <v>4942.372499534134</v>
       </c>
       <c r="R23" t="n">
         <v>5112.192153824797</v>
@@ -6022,10 +6022,10 @@
         <v>4808.766732495543</v>
       </c>
       <c r="U23" t="n">
-        <v>4549.545294689023</v>
+        <v>4549.545294689022</v>
       </c>
       <c r="V23" t="n">
-        <v>4186.928344622849</v>
+        <v>4186.928344622848</v>
       </c>
       <c r="W23" t="n">
         <v>3782.072890033882</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7350307308429</v>
+        <v>975.7119051075392</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1733192140679</v>
+        <v>803.1501935907642</v>
       </c>
       <c r="D25" t="n">
-        <v>614.2953264155906</v>
+        <v>803.1501935907642</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5373226663279</v>
+        <v>633.3921898415015</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8302686280841</v>
+        <v>456.6851358032577</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2438430764959</v>
+        <v>291.0987102516696</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2438430764959</v>
+        <v>190.757956939015</v>
       </c>
       <c r="I25" t="n">
         <v>102.2438430764959</v>
@@ -6159,7 +6159,7 @@
         <v>1343.615637030075</v>
       </c>
       <c r="N25" t="n">
-        <v>1786.601766431229</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O25" t="n">
         <v>2206.942819164056</v>
@@ -6174,25 +6174,25 @@
         <v>2723.615324116631</v>
       </c>
       <c r="S25" t="n">
-        <v>2564.458467624573</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="T25" t="n">
-        <v>2318.599741463161</v>
+        <v>2477.756597955219</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.346987345587</v>
+        <v>2199.323861722284</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.391479216018</v>
+        <v>1912.368353592714</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.365074802309</v>
+        <v>1640.341949179006</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.973320135722</v>
+        <v>1394.950194512418</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.55364944983</v>
+        <v>1167.530523826526</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1220.517729944101</v>
       </c>
       <c r="F26" t="n">
-        <v>792.650300353309</v>
+        <v>792.6503003533094</v>
       </c>
       <c r="G26" t="n">
-        <v>391.2632799323575</v>
+        <v>391.2632799323574</v>
       </c>
       <c r="H26" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I26" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J26" t="n">
         <v>538.3978373173468</v>
@@ -6238,7 +6238,7 @@
         <v>2581.040336873681</v>
       </c>
       <c r="N26" t="n">
-        <v>2582.930975126826</v>
+        <v>2582.930975126825</v>
       </c>
       <c r="O26" t="n">
         <v>3564.895917787388</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.255275123354</v>
+        <v>608.3539388474062</v>
       </c>
       <c r="C27" t="n">
-        <v>3848.798813959997</v>
+        <v>501.8974776840485</v>
       </c>
       <c r="D27" t="n">
-        <v>3753.70852510655</v>
+        <v>406.8071888306018</v>
       </c>
       <c r="E27" t="n">
-        <v>3659.588110433504</v>
+        <v>312.6867741575555</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.204272049665</v>
+        <v>229.3029357737171</v>
       </c>
       <c r="G27" t="n">
-        <v>3490.824966687144</v>
+        <v>143.9236304111961</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.145179352444</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.404044219503</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.49799014774</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K27" t="n">
-        <v>4446.631433583362</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L27" t="n">
-        <v>4447.862384594227</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M27" t="n">
-        <v>4449.298846363697</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N27" t="n">
-        <v>4450.77332700188</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O27" t="n">
-        <v>4452.122188722642</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P27" t="n">
-        <v>4453.204769171304</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q27" t="n">
-        <v>4994.667384163751</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R27" t="n">
-        <v>5112.192153824797</v>
+        <v>1765.290817548849</v>
       </c>
       <c r="S27" t="n">
-        <v>5048.844158432982</v>
+        <v>1701.942822157035</v>
       </c>
       <c r="T27" t="n">
-        <v>4918.688829839111</v>
+        <v>1571.787493563164</v>
       </c>
       <c r="U27" t="n">
-        <v>4742.352663389823</v>
+        <v>1395.451327113875</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.235145451822</v>
+        <v>1196.333809175875</v>
       </c>
       <c r="W27" t="n">
-        <v>4357.912391185017</v>
+        <v>1011.011054909069</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.044955423897</v>
+        <v>856.1436191479486</v>
       </c>
       <c r="Y27" t="n">
-        <v>4076.559176203118</v>
+        <v>729.6578399271693</v>
       </c>
     </row>
     <row r="28">
@@ -6396,7 +6396,7 @@
         <v>1343.615637030075</v>
       </c>
       <c r="N28" t="n">
-        <v>1786.601766431229</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O28" t="n">
         <v>2206.942819164056</v>
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.344732427939</v>
+        <v>2528.344732427938</v>
       </c>
       <c r="C29" t="n">
         <v>2090.202259611362</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.292474785806</v>
       </c>
       <c r="E29" t="n">
-        <v>1220.517729944102</v>
+        <v>1220.517729944101</v>
       </c>
       <c r="F29" t="n">
-        <v>792.6503003533098</v>
+        <v>792.6503003533094</v>
       </c>
       <c r="G29" t="n">
-        <v>391.2632799323575</v>
+        <v>391.2632799323574</v>
       </c>
       <c r="H29" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I29" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J29" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K29" t="n">
-        <v>763.6316451211826</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L29" t="n">
-        <v>1840.363710885808</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M29" t="n">
-        <v>2999.272078982282</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N29" t="n">
-        <v>4126.893700671873</v>
+        <v>2582.930975126825</v>
       </c>
       <c r="O29" t="n">
-        <v>5108.858643332435</v>
+        <v>3564.895917787388</v>
       </c>
       <c r="P29" t="n">
-        <v>5110.382335171646</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q29" t="n">
-        <v>5111.52656428719</v>
+        <v>4942.372499534134</v>
       </c>
       <c r="R29" t="n">
         <v>5112.192153824797</v>
@@ -6496,19 +6496,19 @@
         <v>4808.766732495543</v>
       </c>
       <c r="U29" t="n">
-        <v>4549.545294689023</v>
+        <v>4549.545294689022</v>
       </c>
       <c r="V29" t="n">
-        <v>4186.928344622849</v>
+        <v>4186.928344622848</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.072890033883</v>
+        <v>3782.072890033882</v>
       </c>
       <c r="X29" t="n">
-        <v>3362.930426613194</v>
+        <v>3362.930426613193</v>
       </c>
       <c r="Y29" t="n">
-        <v>2954.644302912847</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>102.2438430764959</v>
       </c>
       <c r="I30" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J30" t="n">
-        <v>102.9746557451216</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K30" t="n">
-        <v>103.8901172816732</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L30" t="n">
-        <v>1059.664117103641</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M30" t="n">
-        <v>1061.100578873112</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N30" t="n">
-        <v>1062.575059511294</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O30" t="n">
-        <v>1763.13256917311</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P30" t="n">
-        <v>1764.215149621772</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q30" t="n">
-        <v>1764.938825982143</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R30" t="n">
         <v>1765.290817548849</v>
@@ -6633,7 +6633,7 @@
         <v>1343.615637030075</v>
       </c>
       <c r="N31" t="n">
-        <v>1786.601766431229</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O31" t="n">
         <v>2206.942819164056</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.344732427938</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C32" t="n">
         <v>2090.202259611362</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.292474785806</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E32" t="n">
-        <v>1220.517729944101</v>
+        <v>1220.517729944102</v>
       </c>
       <c r="F32" t="n">
-        <v>792.650300353309</v>
+        <v>792.6503003533097</v>
       </c>
       <c r="G32" t="n">
         <v>391.2632799323575</v>
@@ -6700,28 +6700,28 @@
         <v>102.2438430764959</v>
       </c>
       <c r="J32" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K32" t="n">
-        <v>104.4909776183048</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L32" t="n">
-        <v>1012.053836052412</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M32" t="n">
-        <v>2170.962204148886</v>
+        <v>3561.220003443987</v>
       </c>
       <c r="N32" t="n">
-        <v>3298.583825838477</v>
+        <v>3563.110641697132</v>
       </c>
       <c r="O32" t="n">
-        <v>4280.548768499039</v>
+        <v>3564.895917787388</v>
       </c>
       <c r="P32" t="n">
-        <v>5110.382335171646</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q32" t="n">
-        <v>5111.52656428719</v>
+        <v>4942.372499534134</v>
       </c>
       <c r="R32" t="n">
         <v>5112.192153824797</v>
@@ -6733,19 +6733,19 @@
         <v>4808.766732495543</v>
       </c>
       <c r="U32" t="n">
-        <v>4549.545294689022</v>
+        <v>4549.545294689023</v>
       </c>
       <c r="V32" t="n">
-        <v>4186.928344622848</v>
+        <v>4186.928344622849</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033883</v>
       </c>
       <c r="X32" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613194</v>
       </c>
       <c r="Y32" t="n">
-        <v>2954.644302912846</v>
+        <v>2954.644302912847</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>975.7119051075392</v>
+        <v>1015.52177757606</v>
       </c>
       <c r="C34" t="n">
-        <v>803.1501935907642</v>
+        <v>842.9600660592845</v>
       </c>
       <c r="D34" t="n">
-        <v>637.2722007922869</v>
+        <v>677.0820732608072</v>
       </c>
       <c r="E34" t="n">
-        <v>467.5141970430241</v>
+        <v>507.3240695115445</v>
       </c>
       <c r="F34" t="n">
-        <v>290.8071430047803</v>
+        <v>330.6170154733007</v>
       </c>
       <c r="G34" t="n">
-        <v>125.2207174531922</v>
+        <v>330.6170154733007</v>
       </c>
       <c r="H34" t="n">
-        <v>125.2207174531922</v>
+        <v>190.757956939015</v>
       </c>
       <c r="I34" t="n">
         <v>102.2438430764959</v>
@@ -6870,7 +6870,7 @@
         <v>1343.615637030075</v>
       </c>
       <c r="N34" t="n">
-        <v>1786.601766431229</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O34" t="n">
         <v>2206.942819164056</v>
@@ -6900,10 +6900,10 @@
         <v>1640.341949179006</v>
       </c>
       <c r="X34" t="n">
-        <v>1394.950194512418</v>
+        <v>1434.760066980939</v>
       </c>
       <c r="Y34" t="n">
-        <v>1167.530523826526</v>
+        <v>1207.340396295047</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.344732427938</v>
+        <v>2528.34473242794</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.202259611362</v>
+        <v>2090.202259611363</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.292474785806</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E35" t="n">
-        <v>1220.517729944101</v>
+        <v>1220.517729944102</v>
       </c>
       <c r="F35" t="n">
-        <v>792.650300353309</v>
+        <v>792.6503003533097</v>
       </c>
       <c r="G35" t="n">
         <v>391.2632799323575</v>
       </c>
       <c r="H35" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J35" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K35" t="n">
-        <v>763.6316451211826</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L35" t="n">
-        <v>1840.363710885808</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M35" t="n">
-        <v>2999.272078982282</v>
+        <v>2750.194401626738</v>
       </c>
       <c r="N35" t="n">
-        <v>4126.893700671873</v>
+        <v>2752.085039879883</v>
       </c>
       <c r="O35" t="n">
-        <v>5108.858643332435</v>
+        <v>3734.049982540445</v>
       </c>
       <c r="P35" t="n">
-        <v>5110.382335171646</v>
+        <v>4563.883549213052</v>
       </c>
       <c r="Q35" t="n">
-        <v>5111.52656428719</v>
+        <v>5111.526564287191</v>
       </c>
       <c r="R35" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824798</v>
       </c>
       <c r="S35" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663561</v>
       </c>
       <c r="T35" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495544</v>
       </c>
       <c r="U35" t="n">
-        <v>4549.545294689022</v>
+        <v>4549.545294689024</v>
       </c>
       <c r="V35" t="n">
-        <v>4186.928344622848</v>
+        <v>4186.92834462285</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033884</v>
       </c>
       <c r="X35" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613194</v>
       </c>
       <c r="Y35" t="n">
-        <v>2954.644302912846</v>
+        <v>2954.644302912847</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I36" t="n">
         <v>128.5027079435546</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>954.5121314865619</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C37" t="n">
-        <v>781.9504199697868</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D37" t="n">
-        <v>616.0724271713095</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E37" t="n">
-        <v>446.3144234220468</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F37" t="n">
-        <v>269.607369383803</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G37" t="n">
-        <v>104.0209438322148</v>
+        <v>102.243843076496</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J37" t="n">
         <v>189.1595596197742</v>
@@ -7107,7 +7107,7 @@
         <v>1343.615637030075</v>
       </c>
       <c r="N37" t="n">
-        <v>1786.601766431229</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O37" t="n">
         <v>2206.942819164056</v>
@@ -7122,25 +7122,25 @@
         <v>2702.415550495654</v>
       </c>
       <c r="S37" t="n">
-        <v>2702.415550495654</v>
+        <v>2543.258694003596</v>
       </c>
       <c r="T37" t="n">
-        <v>2456.556824334242</v>
+        <v>2297.399967842184</v>
       </c>
       <c r="U37" t="n">
-        <v>2178.124088101306</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V37" t="n">
-        <v>1891.168579971737</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W37" t="n">
-        <v>1619.142175558028</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X37" t="n">
-        <v>1373.750420891441</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y37" t="n">
-        <v>1146.330750205549</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.344732427939</v>
+        <v>2528.34473242794</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.202259611362</v>
+        <v>2090.202259611363</v>
       </c>
       <c r="D38" t="n">
         <v>1654.292474785807</v>
@@ -7162,55 +7162,55 @@
         <v>1220.517729944102</v>
       </c>
       <c r="F38" t="n">
-        <v>792.6503003533098</v>
+        <v>792.6503003533097</v>
       </c>
       <c r="G38" t="n">
         <v>391.2632799323575</v>
       </c>
       <c r="H38" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J38" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K38" t="n">
-        <v>763.6316451211826</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L38" t="n">
-        <v>1840.363710885808</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M38" t="n">
-        <v>2999.272078982282</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N38" t="n">
-        <v>4126.893700671873</v>
+        <v>2752.085039879883</v>
       </c>
       <c r="O38" t="n">
-        <v>5108.858643332435</v>
+        <v>3734.049982540445</v>
       </c>
       <c r="P38" t="n">
-        <v>5110.382335171646</v>
+        <v>4563.883549213052</v>
       </c>
       <c r="Q38" t="n">
-        <v>5111.52656428719</v>
+        <v>5111.526564287191</v>
       </c>
       <c r="R38" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824798</v>
       </c>
       <c r="S38" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663561</v>
       </c>
       <c r="T38" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495544</v>
       </c>
       <c r="U38" t="n">
-        <v>4549.545294689023</v>
+        <v>4549.545294689024</v>
       </c>
       <c r="V38" t="n">
-        <v>4186.928344622849</v>
+        <v>4186.92834462285</v>
       </c>
       <c r="W38" t="n">
         <v>3782.072890033883</v>
@@ -7247,19 +7247,19 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I39" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J39" t="n">
-        <v>102.9746557451216</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K39" t="n">
-        <v>103.8901172816732</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L39" t="n">
-        <v>105.1210682925375</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M39" t="n">
         <v>1102.397510087749</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>816.5550486154812</v>
+        <v>1181.108203127648</v>
       </c>
       <c r="C40" t="n">
-        <v>643.9933370987061</v>
+        <v>1008.546491610873</v>
       </c>
       <c r="D40" t="n">
-        <v>478.1153443002288</v>
+        <v>842.6684988123955</v>
       </c>
       <c r="E40" t="n">
-        <v>308.3573405509661</v>
+        <v>672.9104950631327</v>
       </c>
       <c r="F40" t="n">
-        <v>131.6502865127223</v>
+        <v>496.2034410248889</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2438430764959</v>
+        <v>330.6170154733007</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2438430764959</v>
+        <v>190.757956939015</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J40" t="n">
         <v>189.1595596197742</v>
@@ -7344,7 +7344,7 @@
         <v>1343.615637030075</v>
       </c>
       <c r="N40" t="n">
-        <v>1786.601766431229</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O40" t="n">
         <v>2206.942819164056</v>
@@ -7356,28 +7356,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R40" t="n">
-        <v>2723.615324116631</v>
+        <v>2702.415550495654</v>
       </c>
       <c r="S40" t="n">
-        <v>2564.458467624573</v>
+        <v>2543.258694003596</v>
       </c>
       <c r="T40" t="n">
-        <v>2318.599741463161</v>
+        <v>2297.399967842184</v>
       </c>
       <c r="U40" t="n">
-        <v>2040.167005230226</v>
+        <v>2018.967231609248</v>
       </c>
       <c r="V40" t="n">
-        <v>1753.211497100656</v>
+        <v>2018.967231609248</v>
       </c>
       <c r="W40" t="n">
-        <v>1481.185092686948</v>
+        <v>1746.94082719554</v>
       </c>
       <c r="X40" t="n">
-        <v>1235.79333802036</v>
+        <v>1501.549072528952</v>
       </c>
       <c r="Y40" t="n">
-        <v>1008.373667334468</v>
+        <v>1372.926821846635</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.344732427938</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C41" t="n">
         <v>2090.202259611362</v>
@@ -7405,58 +7405,58 @@
         <v>391.2632799323575</v>
       </c>
       <c r="H41" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J41" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K41" t="n">
-        <v>763.6316451211826</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L41" t="n">
-        <v>1840.363710885808</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M41" t="n">
-        <v>2999.272078982282</v>
+        <v>2581.040336873683</v>
       </c>
       <c r="N41" t="n">
-        <v>4126.893700671873</v>
+        <v>2582.930975126828</v>
       </c>
       <c r="O41" t="n">
-        <v>5108.858643332435</v>
+        <v>3564.89591778739</v>
       </c>
       <c r="P41" t="n">
-        <v>5110.382335171646</v>
+        <v>4394.729484459997</v>
       </c>
       <c r="Q41" t="n">
-        <v>5111.52656428719</v>
+        <v>4942.372499534136</v>
       </c>
       <c r="R41" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.1921538248</v>
       </c>
       <c r="S41" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663563</v>
       </c>
       <c r="T41" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495546</v>
       </c>
       <c r="U41" t="n">
-        <v>4549.545294689022</v>
+        <v>4549.545294689025</v>
       </c>
       <c r="V41" t="n">
-        <v>4186.928344622848</v>
+        <v>4186.928344622852</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033885</v>
       </c>
       <c r="X41" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613196</v>
       </c>
       <c r="Y41" t="n">
-        <v>2954.644302912846</v>
+        <v>2954.644302912847</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.3539388474062</v>
+        <v>608.3539388474063</v>
       </c>
       <c r="C42" t="n">
-        <v>501.8974776840485</v>
+        <v>501.8974776840486</v>
       </c>
       <c r="D42" t="n">
         <v>406.8071888306018</v>
@@ -7481,37 +7481,37 @@
         <v>229.3029357737171</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9236304111961</v>
+        <v>143.9236304111962</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I42" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J42" t="n">
-        <v>102.9746557451216</v>
+        <v>129.0383289055792</v>
       </c>
       <c r="K42" t="n">
-        <v>103.8901172816732</v>
+        <v>810.6873105125082</v>
       </c>
       <c r="L42" t="n">
-        <v>105.1210682925375</v>
+        <v>811.9182615233725</v>
       </c>
       <c r="M42" t="n">
-        <v>526.4819552538578</v>
+        <v>813.3547232928428</v>
       </c>
       <c r="N42" t="n">
-        <v>1761.783707452347</v>
+        <v>814.8292039310255</v>
       </c>
       <c r="O42" t="n">
-        <v>1763.13256917311</v>
+        <v>816.1780656517882</v>
       </c>
       <c r="P42" t="n">
-        <v>1764.215149621772</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q42" t="n">
-        <v>1764.938825982143</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R42" t="n">
         <v>1765.290817548849</v>
@@ -7532,10 +7532,10 @@
         <v>1011.011054909069</v>
       </c>
       <c r="X42" t="n">
-        <v>856.1436191479486</v>
+        <v>856.1436191479487</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.6578399271693</v>
+        <v>729.6578399271694</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7350307308429</v>
+        <v>1092.594089265129</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1733192140679</v>
+        <v>920.0323777483537</v>
       </c>
       <c r="D43" t="n">
-        <v>614.2953264155906</v>
+        <v>754.1543849498764</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5373226663279</v>
+        <v>584.3963812006136</v>
       </c>
       <c r="F43" t="n">
-        <v>267.8302686280841</v>
+        <v>407.6893271623699</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2438430764959</v>
+        <v>242.1029016107817</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J43" t="n">
         <v>189.1595596197742</v>
@@ -7581,7 +7581,7 @@
         <v>1343.615637030075</v>
       </c>
       <c r="N43" t="n">
-        <v>1786.601766431229</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O43" t="n">
         <v>2206.942819164056</v>
@@ -7593,28 +7593,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R43" t="n">
-        <v>2723.615324116631</v>
+        <v>2702.415550495654</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.638449739935</v>
+        <v>2702.415550495654</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.779723578523</v>
+        <v>2594.638782112809</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.346987345587</v>
+        <v>2316.206045879873</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.391479216018</v>
+        <v>2029.250537750304</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.365074802309</v>
+        <v>1757.224133336595</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.973320135722</v>
+        <v>1511.832378670008</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.55364944983</v>
+        <v>1284.412707984116</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.344732427939</v>
+        <v>2528.344732427942</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.202259611362</v>
+        <v>2090.202259611365</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.29247478581</v>
       </c>
       <c r="E44" t="n">
-        <v>1220.517729944102</v>
+        <v>1220.517729944105</v>
       </c>
       <c r="F44" t="n">
-        <v>792.6503003533096</v>
+        <v>792.6503003533097</v>
       </c>
       <c r="G44" t="n">
         <v>391.2632799323575</v>
       </c>
       <c r="H44" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J44" t="n">
         <v>538.3978373173468</v>
@@ -7657,43 +7657,43 @@
         <v>2450.828022794025</v>
       </c>
       <c r="M44" t="n">
-        <v>2452.688555679948</v>
+        <v>2750.19440162674</v>
       </c>
       <c r="N44" t="n">
-        <v>2582.930975126826</v>
+        <v>2752.085039879884</v>
       </c>
       <c r="O44" t="n">
-        <v>3564.895917787388</v>
+        <v>3734.049982540447</v>
       </c>
       <c r="P44" t="n">
-        <v>4394.729484459995</v>
+        <v>4563.883549213054</v>
       </c>
       <c r="Q44" t="n">
-        <v>4942.372499534134</v>
+        <v>5111.526564287193</v>
       </c>
       <c r="R44" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.1921538248</v>
       </c>
       <c r="S44" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663563</v>
       </c>
       <c r="T44" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495546</v>
       </c>
       <c r="U44" t="n">
-        <v>4549.545294689023</v>
+        <v>4549.545294689025</v>
       </c>
       <c r="V44" t="n">
-        <v>4186.928344622849</v>
+        <v>4186.928344622852</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033885</v>
       </c>
       <c r="X44" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613196</v>
       </c>
       <c r="Y44" t="n">
-        <v>2954.644302912846</v>
+        <v>2954.64430291285</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.3539388474062</v>
+        <v>608.3539388474063</v>
       </c>
       <c r="C45" t="n">
-        <v>501.8974776840485</v>
+        <v>501.8974776840486</v>
       </c>
       <c r="D45" t="n">
         <v>406.8071888306018</v>
@@ -7718,10 +7718,10 @@
         <v>229.3029357737171</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9236304111961</v>
+        <v>143.9236304111962</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I45" t="n">
         <v>128.5027079435546</v>
@@ -7769,10 +7769,10 @@
         <v>1011.011054909069</v>
       </c>
       <c r="X45" t="n">
-        <v>856.1436191479486</v>
+        <v>856.1436191479487</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.6578399271693</v>
+        <v>729.6578399271694</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>816.5550486154812</v>
+        <v>795.3552749945038</v>
       </c>
       <c r="C46" t="n">
-        <v>643.9933370987061</v>
+        <v>622.7935634777288</v>
       </c>
       <c r="D46" t="n">
-        <v>478.1153443002288</v>
+        <v>456.9155706792515</v>
       </c>
       <c r="E46" t="n">
-        <v>308.3573405509661</v>
+        <v>287.1575669299887</v>
       </c>
       <c r="F46" t="n">
-        <v>131.6502865127223</v>
+        <v>110.4505128917449</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J46" t="n">
         <v>189.1595596197742</v>
@@ -7818,7 +7818,7 @@
         <v>1343.615637030075</v>
       </c>
       <c r="N46" t="n">
-        <v>1786.601766431229</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O46" t="n">
         <v>2206.942819164056</v>
@@ -7830,28 +7830,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R46" t="n">
-        <v>2723.615324116631</v>
+        <v>2702.415550495654</v>
       </c>
       <c r="S46" t="n">
-        <v>2564.458467624573</v>
+        <v>2543.258694003596</v>
       </c>
       <c r="T46" t="n">
-        <v>2318.599741463161</v>
+        <v>2297.399967842184</v>
       </c>
       <c r="U46" t="n">
-        <v>2040.167005230226</v>
+        <v>2018.967231609248</v>
       </c>
       <c r="V46" t="n">
-        <v>1753.211497100656</v>
+        <v>1732.011723479679</v>
       </c>
       <c r="W46" t="n">
-        <v>1481.185092686948</v>
+        <v>1459.98531906597</v>
       </c>
       <c r="X46" t="n">
-        <v>1235.79333802036</v>
+        <v>1214.593564399383</v>
       </c>
       <c r="Y46" t="n">
-        <v>1008.373667334468</v>
+        <v>987.173893713491</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8060,25 +8060,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>10.62009379123748</v>
+        <v>10.6200937912393</v>
       </c>
       <c r="O5" t="n">
-        <v>598.6708407308735</v>
+        <v>598.6708407308745</v>
       </c>
       <c r="P5" t="n">
-        <v>598.6708407308734</v>
+        <v>598.6708407308745</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>598.6708407308735</v>
+        <v>598.6708407308745</v>
       </c>
       <c r="L6" t="n">
-        <v>62.64839828500908</v>
+        <v>62.64839828500794</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>4.937919528650326</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8391,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>78.42119164905671</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8458,19 +8458,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8698,7 +8698,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>129.6482638320529</v>
+        <v>300.5109555018066</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L12" t="n">
-        <v>842.4530608817762</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>129.6482638320529</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>300.5109555018066</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>291.9624109039457</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9172,13 +9172,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1119.728735115191</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>129.6482638320508</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>296.2521127685683</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>510.3266671320905</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>129.6482638320539</v>
+        <v>129.6482638320508</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>651.7353352515863</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>665.798654043311</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>129.6482638320529</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>651.7353352515863</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>665.798654043311</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>706.2713615566189</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>915.0411706286275</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>1119.728735115191</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>665.798654043311</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>300.5109555018075</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>665.798654043311</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>300.5109555018075</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10898,19 +10898,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1005.898969722971</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>665.798654043311</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>129.6482638320554</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>424.1660860523737</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>291.9624109039457</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>300.5109555018093</v>
       </c>
       <c r="N44" t="n">
-        <v>129.648263832053</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.62897272389382</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>134.8181822942083</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>51.32858900799715</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>138.4952599520146</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>134.8181822942082</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>97.80944580353899</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>171.0071904352475</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>134.8181822942082</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>156.7499248727795</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4604679489429</v>
+        <v>39.12312216941483</v>
       </c>
       <c r="I25" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>134.8181822942083</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>64.88186709096456</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>39.41177374383514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>136.7011382007812</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I37" t="n">
         <v>87.62897272389382</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>155.8059581789758</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>134.8181822942082</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.80944580353861</v>
       </c>
     </row>
     <row r="41">
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.62897272389382</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>134.8181822942083</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>136.7011382007813</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>134.8181822942082</v>
+        <v>155.8059581789758</v>
       </c>
       <c r="H46" t="n">
         <v>138.4604679489429</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>541970.6703052935</v>
+        <v>541970.6703052934</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>541970.6703052935</v>
+        <v>541970.6703052934</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>541970.6703052935</v>
+        <v>541970.6703052934</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>541970.6703052935</v>
+        <v>541970.6703052934</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>541970.6703052935</v>
+        <v>541970.6703052934</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="C2" t="n">
         <v>495936.2708986277</v>
       </c>
       <c r="D2" t="n">
-        <v>495936.2708986277</v>
+        <v>495936.2708986278</v>
       </c>
       <c r="E2" t="n">
-        <v>487458.1930441174</v>
+        <v>487458.1930441175</v>
       </c>
       <c r="F2" t="n">
         <v>487458.1930441175</v>
       </c>
       <c r="G2" t="n">
+        <v>487458.1930441176</v>
+      </c>
+      <c r="H2" t="n">
         <v>487458.1930441175</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>487458.1930441176</v>
-      </c>
-      <c r="I2" t="n">
-        <v>487458.1930441174</v>
       </c>
       <c r="J2" t="n">
         <v>487458.1930441175</v>
       </c>
       <c r="K2" t="n">
-        <v>487458.1930441176</v>
+        <v>487458.1930441175</v>
       </c>
       <c r="L2" t="n">
         <v>487458.1930441175</v>
       </c>
       <c r="M2" t="n">
-        <v>487458.1930441177</v>
+        <v>487458.1930441175</v>
       </c>
       <c r="N2" t="n">
-        <v>487458.1930441175</v>
+        <v>487458.1930441176</v>
       </c>
       <c r="O2" t="n">
         <v>487458.1930441175</v>
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>56335.44544714165</v>
+        <v>56335.44544714202</v>
       </c>
       <c r="D3" t="n">
-        <v>21385.12537236743</v>
+        <v>21385.12537236705</v>
       </c>
       <c r="E3" t="n">
         <v>184430.5981858013</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>44878.54067898921</v>
+        <v>44878.54067898951</v>
       </c>
       <c r="L3" t="n">
-        <v>17423.88940417167</v>
+        <v>17423.88940417136</v>
       </c>
       <c r="M3" t="n">
-        <v>152147.2238279343</v>
+        <v>152147.2238279344</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>192623.6608176004</v>
+        <v>192623.6608176002</v>
       </c>
       <c r="D4" t="n">
         <v>182515.9822733277</v>
@@ -26456,10 +26456,10 @@
         <v>108017.0511911513</v>
       </c>
       <c r="O4" t="n">
-        <v>108017.0511911513</v>
+        <v>108017.0511911512</v>
       </c>
       <c r="P4" t="n">
-        <v>108017.0511911513</v>
+        <v>108017.0511911512</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>70026.7871164371</v>
+        <v>70026.78711643716</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>77763.35959750945</v>
@@ -26484,10 +26484,10 @@
         <v>77763.35959750945</v>
       </c>
       <c r="G5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750942</v>
       </c>
       <c r="H5" t="n">
-        <v>77763.35959750946</v>
+        <v>77763.35959750942</v>
       </c>
       <c r="I5" t="n">
         <v>77763.35959750945</v>
@@ -26502,16 +26502,16 @@
         <v>77763.35959750945</v>
       </c>
       <c r="M5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750946</v>
       </c>
       <c r="N5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750946</v>
       </c>
       <c r="O5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750949</v>
       </c>
       <c r="P5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750949</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76094.91606912628</v>
+        <v>76094.91606912631</v>
       </c>
       <c r="C6" t="n">
-        <v>176950.3775174486</v>
+        <v>176950.3775174483</v>
       </c>
       <c r="D6" t="n">
-        <v>217822.6386911749</v>
+        <v>217822.6386911753</v>
       </c>
       <c r="E6" t="n">
-        <v>117247.1840696554</v>
+        <v>117224.2703457243</v>
       </c>
       <c r="F6" t="n">
-        <v>301677.7822554567</v>
+        <v>301654.8685315256</v>
       </c>
       <c r="G6" t="n">
-        <v>301677.7822554567</v>
+        <v>301654.8685315259</v>
       </c>
       <c r="H6" t="n">
-        <v>301677.7822554568</v>
+        <v>301654.8685315256</v>
       </c>
       <c r="I6" t="n">
-        <v>301677.7822554566</v>
+        <v>301654.8685315256</v>
       </c>
       <c r="J6" t="n">
-        <v>190663.3169104666</v>
+        <v>190640.4031865354</v>
       </c>
       <c r="K6" t="n">
-        <v>256799.2415764676</v>
+        <v>256776.3278525361</v>
       </c>
       <c r="L6" t="n">
-        <v>284253.8928512851</v>
+        <v>284230.9791273542</v>
       </c>
       <c r="M6" t="n">
-        <v>149530.5584275227</v>
+        <v>149507.6447035912</v>
       </c>
       <c r="N6" t="n">
-        <v>301677.7822554568</v>
+        <v>301654.8685315257</v>
       </c>
       <c r="O6" t="n">
-        <v>301677.7822554567</v>
+        <v>301654.8685315257</v>
       </c>
       <c r="P6" t="n">
-        <v>301677.7822554568</v>
+        <v>301654.8685315258</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="F3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="G3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="H3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="I3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="J3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="K3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="L3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="M3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="N3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="O3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="P3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>598.6708407308735</v>
+        <v>598.6708407308745</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1278.048038456199</v>
@@ -26828,10 +26828,10 @@
         <v>1278.048038456199</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.048038456199</v>
+        <v>1278.0480384562</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.048038456199</v>
+        <v>1278.0480384562</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>174.3749832107691</v>
+        <v>174.3749832107702</v>
       </c>
       <c r="D4" t="n">
-        <v>68.84436587698364</v>
+        <v>68.84436587698242</v>
       </c>
       <c r="E4" t="n">
-        <v>610.5328318483422</v>
+        <v>610.5328318483423</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
-        <v>174.3749832107691</v>
+        <v>174.3749832107702</v>
       </c>
       <c r="L4" t="n">
-        <v>68.84436587698364</v>
+        <v>68.84436587698242</v>
       </c>
       <c r="M4" t="n">
-        <v>610.5328318483422</v>
+        <v>610.5328318483425</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>174.3749832107691</v>
+        <v>174.3749832107702</v>
       </c>
       <c r="L4" t="n">
-        <v>68.84436587698364</v>
+        <v>68.84436587698242</v>
       </c>
       <c r="M4" t="n">
-        <v>610.5328318483422</v>
+        <v>610.5328318483423</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.0070762976464</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>370.3579796189765</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>119.5821359351618</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>23.80879716859329</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>196.4168671631097</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>353.7288567529601</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>151.1489795466217</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>153.5941759147874</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>338.8964581122901</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>12.0610071457178</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27912,7 +27912,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.01701577190892</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>44.28436272291265</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.650755850755788e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-12</v>
       </c>
     </row>
     <row r="42">
@@ -30708,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-1.624282704596574e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31761,7 +31761,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K11" t="n">
         <v>1.361442175632203</v>
@@ -31770,7 +31770,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M11" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N11" t="n">
         <v>1.909735609237095</v>
@@ -31785,16 +31785,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H12" t="n">
         <v>0.05530620059647288</v>
@@ -31843,7 +31843,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L12" t="n">
         <v>1.243384859458851</v>
@@ -31861,19 +31861,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R12" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T12" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J13" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R13" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S13" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T13" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,7 +31998,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K14" t="n">
         <v>1.361442175632203</v>
@@ -32007,7 +32007,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M14" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N14" t="n">
         <v>1.909735609237095</v>
@@ -32022,16 +32022,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H15" t="n">
         <v>0.05530620059647288</v>
@@ -32080,7 +32080,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L15" t="n">
         <v>1.243384859458851</v>
@@ -32098,19 +32098,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R15" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T15" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J16" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R16" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S16" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T16" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K17" t="n">
         <v>1.361442175632203</v>
@@ -32244,7 +32244,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M17" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N17" t="n">
         <v>1.909735609237095</v>
@@ -32259,16 +32259,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S17" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H18" t="n">
         <v>0.05530620059647288</v>
@@ -32317,7 +32317,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L18" t="n">
         <v>1.243384859458851</v>
@@ -32335,19 +32335,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R18" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T18" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J19" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R19" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T19" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K20" t="n">
         <v>1.361442175632203</v>
@@ -32481,7 +32481,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M20" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N20" t="n">
         <v>1.909735609237095</v>
@@ -32496,16 +32496,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H21" t="n">
         <v>0.05530620059647288</v>
@@ -32554,7 +32554,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L21" t="n">
         <v>1.243384859458851</v>
@@ -32572,19 +32572,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R21" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T21" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J22" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R22" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T22" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32709,7 +32709,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K23" t="n">
         <v>1.361442175632203</v>
@@ -32718,7 +32718,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M23" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N23" t="n">
         <v>1.909735609237095</v>
@@ -32733,16 +32733,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H24" t="n">
         <v>0.05530620059647288</v>
@@ -32791,7 +32791,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L24" t="n">
         <v>1.243384859458851</v>
@@ -32809,19 +32809,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R24" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T24" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J25" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P25" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R25" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T25" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,7 +32946,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K26" t="n">
         <v>1.361442175632203</v>
@@ -32955,7 +32955,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M26" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N26" t="n">
         <v>1.909735609237095</v>
@@ -32970,16 +32970,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R26" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S26" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H27" t="n">
         <v>0.05530620059647288</v>
@@ -33028,7 +33028,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L27" t="n">
         <v>1.243384859458851</v>
@@ -33046,19 +33046,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R27" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T27" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J28" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O28" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P28" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R28" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S28" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T28" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,7 +33183,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K29" t="n">
         <v>1.361442175632203</v>
@@ -33192,7 +33192,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M29" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N29" t="n">
         <v>1.909735609237095</v>
@@ -33207,16 +33207,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R29" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H30" t="n">
         <v>0.05530620059647288</v>
@@ -33265,7 +33265,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L30" t="n">
         <v>1.243384859458851</v>
@@ -33283,19 +33283,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R30" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T30" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J31" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N31" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O31" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P31" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R31" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S31" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T31" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,7 +33420,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K32" t="n">
         <v>1.361442175632203</v>
@@ -33429,7 +33429,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M32" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N32" t="n">
         <v>1.909735609237095</v>
@@ -33444,16 +33444,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R32" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S32" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H33" t="n">
         <v>0.05530620059647288</v>
@@ -33502,7 +33502,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L33" t="n">
         <v>1.243384859458851</v>
@@ -33520,19 +33520,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R33" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S33" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T33" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J34" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L34" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M34" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O34" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P34" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R34" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S34" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T34" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33657,7 +33657,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K35" t="n">
         <v>1.361442175632203</v>
@@ -33666,7 +33666,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M35" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N35" t="n">
         <v>1.909735609237095</v>
@@ -33681,16 +33681,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R35" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S35" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H36" t="n">
         <v>0.05530620059647288</v>
@@ -33739,7 +33739,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L36" t="n">
         <v>1.243384859458851</v>
@@ -33757,19 +33757,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R36" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T36" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H37" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J37" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L37" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M37" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O37" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P37" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R37" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S37" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T37" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33894,7 +33894,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K38" t="n">
         <v>1.361442175632203</v>
@@ -33903,7 +33903,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M38" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N38" t="n">
         <v>1.909735609237095</v>
@@ -33918,16 +33918,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R38" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S38" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H39" t="n">
         <v>0.05530620059647288</v>
@@ -33976,7 +33976,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L39" t="n">
         <v>1.243384859458851</v>
@@ -33994,19 +33994,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R39" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S39" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T39" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J40" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L40" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N40" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O40" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P40" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R40" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S40" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T40" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K41" t="n">
         <v>1.361442175632203</v>
@@ -34140,7 +34140,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M41" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N41" t="n">
         <v>1.909735609237095</v>
@@ -34155,16 +34155,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R41" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S41" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T41" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H42" t="n">
         <v>0.05530620059647288</v>
@@ -34213,7 +34213,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L42" t="n">
         <v>1.243384859458851</v>
@@ -34231,19 +34231,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R42" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T42" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J43" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L43" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N43" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O43" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P43" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R43" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S43" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T43" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K44" t="n">
         <v>1.361442175632203</v>
@@ -34377,7 +34377,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M44" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N44" t="n">
         <v>1.909735609237095</v>
@@ -34392,16 +34392,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R44" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S44" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H45" t="n">
         <v>0.05530620059647288</v>
@@ -34450,7 +34450,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L45" t="n">
         <v>1.243384859458851</v>
@@ -34468,19 +34468,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R45" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T45" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J46" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N46" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O46" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P46" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R46" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S46" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T46" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34780,25 +34780,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>10.62009379123748</v>
+        <v>10.6200937912393</v>
       </c>
       <c r="O5" t="n">
-        <v>598.6708407308735</v>
+        <v>598.6708407308745</v>
       </c>
       <c r="P5" t="n">
-        <v>598.6708407308734</v>
+        <v>598.6708407308745</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35014,13 +35014,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>598.6708407308735</v>
+        <v>598.6708407308745</v>
       </c>
       <c r="L6" t="n">
-        <v>62.64839828500908</v>
+        <v>62.64839828500794</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35096,10 +35096,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>4.937919528650326</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35108,10 +35108,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>78.42119164905671</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35178,19 +35178,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35418,13 +35418,13 @@
         <v>1087.608147236995</v>
       </c>
       <c r="M11" t="n">
-        <v>131.5275899794501</v>
+        <v>302.3902816492036</v>
       </c>
       <c r="N11" t="n">
         <v>1.909735609237032</v>
       </c>
       <c r="O11" t="n">
-        <v>991.8837804652139</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P11" t="n">
         <v>838.2157239117246</v>
@@ -35433,7 +35433,7 @@
         <v>553.17476270115</v>
       </c>
       <c r="R11" t="n">
-        <v>171.535004334004</v>
+        <v>0.6723126642500574</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5410312747723225</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9247086227794483</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L12" t="n">
-        <v>843.696445741235</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M12" t="n">
         <v>1.450971484313413</v>
@@ -35503,16 +35503,16 @@
         <v>1.489374382002779</v>
       </c>
       <c r="O12" t="n">
-        <v>1.362486586628961</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P12" t="n">
-        <v>829.0967140685456</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,13 +35576,13 @@
         <v>423.1479911205234</v>
       </c>
       <c r="M13" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N13" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O13" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P13" t="n">
         <v>351.5977150790518</v>
@@ -35655,13 +35655,13 @@
         <v>1087.608147236995</v>
       </c>
       <c r="M14" t="n">
-        <v>131.5275899794501</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N14" t="n">
-        <v>1.909735609237032</v>
+        <v>302.4206911110437</v>
       </c>
       <c r="O14" t="n">
-        <v>991.8837804652139</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P14" t="n">
         <v>838.2157239117246</v>
@@ -35670,7 +35670,7 @@
         <v>553.17476270115</v>
       </c>
       <c r="R14" t="n">
-        <v>171.535004334004</v>
+        <v>0.6723126642500574</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>26.52410592632187</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5410312747723083</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K15" t="n">
-        <v>688.5343248554839</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L15" t="n">
-        <v>1.243384859458843</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M15" t="n">
         <v>1.450971484313413</v>
       </c>
       <c r="N15" t="n">
-        <v>1.489374382002893</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O15" t="n">
-        <v>293.3248974905746</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P15" t="n">
         <v>1.093515604708955</v>
@@ -35813,13 +35813,13 @@
         <v>423.1479911205234</v>
       </c>
       <c r="M16" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N16" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O16" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P16" t="n">
         <v>351.5977150790518</v>
@@ -35892,13 +35892,13 @@
         <v>1087.608147236995</v>
       </c>
       <c r="M17" t="n">
-        <v>1121.608061262588</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N17" t="n">
-        <v>1.909735609237032</v>
+        <v>131.5579994412878</v>
       </c>
       <c r="O17" t="n">
-        <v>1.803309182076191</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P17" t="n">
         <v>838.2157239117246</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5410312747723225</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K18" t="n">
-        <v>297.1768213913478</v>
+        <v>688.5343248554839</v>
       </c>
       <c r="L18" t="n">
-        <v>1.243384859458843</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M18" t="n">
-        <v>1.45097148431347</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N18" t="n">
-        <v>1.489374382002836</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O18" t="n">
-        <v>1.362486586628904</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P18" t="n">
-        <v>829.0967140685457</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.9319343358052</v>
+        <v>511.057653354688</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.79365307401842</v>
+        <v>87.79365307401844</v>
       </c>
       <c r="K19" t="n">
         <v>278.0915730817343</v>
@@ -36050,13 +36050,13 @@
         <v>423.1479911205234</v>
       </c>
       <c r="M19" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N19" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O19" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P19" t="n">
         <v>351.5977150790518</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.650755850755788e-12</v>
       </c>
       <c r="J20" t="n">
         <v>440.5595901422736</v>
@@ -36132,10 +36132,10 @@
         <v>1.879326147397023</v>
       </c>
       <c r="N20" t="n">
-        <v>131.557999441291</v>
+        <v>131.5579994412878</v>
       </c>
       <c r="O20" t="n">
-        <v>991.8837804652139</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P20" t="n">
         <v>838.2157239117246</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.52410592632214</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J21" t="n">
-        <v>328.3777231598351</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K21" t="n">
-        <v>652.6600438743658</v>
+        <v>0.9247086227794625</v>
       </c>
       <c r="L21" t="n">
-        <v>1.243384859459184</v>
+        <v>1.243384859458843</v>
       </c>
       <c r="M21" t="n">
-        <v>1.450971484313413</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N21" t="n">
-        <v>1.489374382003007</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36248658662862</v>
+        <v>1.362486586628904</v>
       </c>
       <c r="P21" t="n">
-        <v>1.093515604708955</v>
+        <v>652.8288508562962</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.9319343358056</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R21" t="n">
-        <v>118.7118885465115</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36287,13 +36287,13 @@
         <v>423.1479911205234</v>
       </c>
       <c r="M22" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N22" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O22" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P22" t="n">
         <v>351.5977150790518</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K23" t="n">
-        <v>667.1600962189432</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L23" t="n">
         <v>1087.608147236995</v>
       </c>
       <c r="M23" t="n">
-        <v>1170.614513228762</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N23" t="n">
-        <v>1139.011739080396</v>
+        <v>131.5579994412897</v>
       </c>
       <c r="O23" t="n">
-        <v>991.8837804652139</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P23" t="n">
-        <v>1.5390826658695</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6723126642500574</v>
+        <v>171.535004334004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36524,13 +36524,13 @@
         <v>423.1479911205234</v>
       </c>
       <c r="M25" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N25" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O25" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P25" t="n">
         <v>351.5977150790518</v>
@@ -36603,13 +36603,13 @@
         <v>1087.608147236995</v>
       </c>
       <c r="M26" t="n">
-        <v>131.5275899794501</v>
+        <v>131.5275899794497</v>
       </c>
       <c r="N26" t="n">
         <v>1.909735609237032</v>
       </c>
       <c r="O26" t="n">
-        <v>991.8837804652139</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P26" t="n">
         <v>838.2157239117246</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.52410592632214</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J27" t="n">
-        <v>328.3777231598351</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K27" t="n">
-        <v>652.6600438743658</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L27" t="n">
-        <v>1.243384859459184</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M27" t="n">
         <v>1.450971484313413</v>
       </c>
       <c r="N27" t="n">
-        <v>1.489374382003007</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36248658662862</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P27" t="n">
         <v>1.093515604708955</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.9319343358047</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R27" t="n">
-        <v>118.7118885465115</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36761,13 +36761,13 @@
         <v>423.1479911205234</v>
       </c>
       <c r="M28" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N28" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O28" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P28" t="n">
         <v>351.5977150790518</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K29" t="n">
-        <v>667.1600962189432</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L29" t="n">
         <v>1087.608147236995</v>
       </c>
       <c r="M29" t="n">
-        <v>1170.614513228762</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N29" t="n">
-        <v>1139.011739080396</v>
+        <v>131.5579994412897</v>
       </c>
       <c r="O29" t="n">
-        <v>991.8837804652139</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P29" t="n">
-        <v>1.5390826658695</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R29" t="n">
-        <v>0.6723126642500574</v>
+        <v>171.535004334004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5410312747723225</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9247086227794483</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L30" t="n">
-        <v>965.4282826484528</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M30" t="n">
         <v>1.450971484313413</v>
@@ -36925,16 +36925,16 @@
         <v>1.489374382002779</v>
       </c>
       <c r="O30" t="n">
-        <v>707.6338481432479</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P30" t="n">
         <v>1.093515604708955</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36998,13 +36998,13 @@
         <v>423.1479911205234</v>
       </c>
       <c r="M31" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N31" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O31" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P31" t="n">
         <v>351.5977150790518</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K32" t="n">
-        <v>1.361442175632206</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L32" t="n">
-        <v>916.7301600344514</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M32" t="n">
-        <v>1170.614513228762</v>
+        <v>1121.608061262588</v>
       </c>
       <c r="N32" t="n">
-        <v>1139.011739080396</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O32" t="n">
-        <v>991.8837804652139</v>
+        <v>1.803309182076191</v>
       </c>
       <c r="P32" t="n">
-        <v>838.2157239117241</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R32" t="n">
-        <v>0.6723126642500574</v>
+        <v>171.535004334004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37235,13 +37235,13 @@
         <v>423.1479911205234</v>
       </c>
       <c r="M34" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N34" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O34" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P34" t="n">
         <v>351.5977150790518</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K35" t="n">
-        <v>667.1600962189432</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L35" t="n">
         <v>1087.608147236995</v>
       </c>
       <c r="M35" t="n">
-        <v>1170.614513228762</v>
+        <v>302.3902816492046</v>
       </c>
       <c r="N35" t="n">
-        <v>1139.011739080396</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O35" t="n">
-        <v>991.8837804652139</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P35" t="n">
-        <v>1.5390826658695</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R35" t="n">
         <v>0.6723126642500574</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.52410592632187</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J36" t="n">
         <v>328.3777231598353</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.79365307401842</v>
+        <v>87.79365307401844</v>
       </c>
       <c r="K37" t="n">
         <v>278.0915730817343</v>
@@ -37472,13 +37472,13 @@
         <v>423.1479911205234</v>
       </c>
       <c r="M37" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N37" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O37" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P37" t="n">
         <v>351.5977150790518</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K38" t="n">
-        <v>667.1600962189432</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L38" t="n">
         <v>1087.608147236995</v>
       </c>
       <c r="M38" t="n">
-        <v>1170.614513228762</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N38" t="n">
-        <v>1139.011739080396</v>
+        <v>302.4206911110446</v>
       </c>
       <c r="O38" t="n">
-        <v>991.8837804652139</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P38" t="n">
-        <v>1.5390826658695</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R38" t="n">
         <v>0.6723126642500574</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5410312747723225</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9247086227794483</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L39" t="n">
-        <v>1.243384859458857</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M39" t="n">
-        <v>1007.349941207284</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N39" t="n">
         <v>1.489374382002779</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.79365307401842</v>
+        <v>87.79365307401844</v>
       </c>
       <c r="K40" t="n">
         <v>278.0915730817343</v>
@@ -37709,13 +37709,13 @@
         <v>423.1479911205234</v>
       </c>
       <c r="M40" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N40" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O40" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P40" t="n">
         <v>351.5977150790518</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K41" t="n">
-        <v>667.1600962189432</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L41" t="n">
         <v>1087.608147236995</v>
       </c>
       <c r="M41" t="n">
-        <v>1170.614513228762</v>
+        <v>131.5275899794524</v>
       </c>
       <c r="N41" t="n">
-        <v>1139.011739080396</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O41" t="n">
-        <v>991.8837804652139</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P41" t="n">
-        <v>1.5390826658695</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R41" t="n">
-        <v>0.6723126642500574</v>
+        <v>171.535004334004</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5410312747723225</v>
+        <v>0.5410312747723083</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9247086227794483</v>
+        <v>688.5343248554839</v>
       </c>
       <c r="L42" t="n">
-        <v>1.243384859458857</v>
+        <v>1.243384859458843</v>
       </c>
       <c r="M42" t="n">
-        <v>425.6170575366871</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N42" t="n">
-        <v>1247.779547675242</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O42" t="n">
-        <v>1.362486586628847</v>
+        <v>1.362486586628961</v>
       </c>
       <c r="P42" t="n">
-        <v>1.093515604708955</v>
+        <v>293.0559265086547</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.79365307401842</v>
+        <v>87.79365307401841</v>
       </c>
       <c r="K43" t="n">
         <v>278.0915730817343</v>
@@ -37946,13 +37946,13 @@
         <v>423.1479911205234</v>
       </c>
       <c r="M43" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N43" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O43" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P43" t="n">
         <v>351.5977150790518</v>
@@ -38025,13 +38025,13 @@
         <v>1087.608147236995</v>
       </c>
       <c r="M44" t="n">
-        <v>1.879326147397023</v>
+        <v>302.3902816492064</v>
       </c>
       <c r="N44" t="n">
-        <v>131.5579994412901</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O44" t="n">
-        <v>991.8837804652139</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P44" t="n">
         <v>838.2157239117246</v>
@@ -38040,7 +38040,7 @@
         <v>553.17476270115</v>
       </c>
       <c r="R44" t="n">
-        <v>171.535004334004</v>
+        <v>0.6723126642500574</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.52410592632187</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J45" t="n">
-        <v>328.3777231598353</v>
+        <v>328.3777231598352</v>
       </c>
       <c r="K45" t="n">
         <v>652.6600438743667</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.79365307401842</v>
+        <v>87.79365307401841</v>
       </c>
       <c r="K46" t="n">
         <v>278.0915730817343</v>
@@ -38183,13 +38183,13 @@
         <v>423.1479911205234</v>
       </c>
       <c r="M46" t="n">
-        <v>464.8776857071368</v>
+        <v>464.8776857071371</v>
       </c>
       <c r="N46" t="n">
         <v>447.4607367688432</v>
       </c>
       <c r="O46" t="n">
-        <v>424.5869219523504</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P46" t="n">
         <v>351.5977150790518</v>
